--- a/target/classes/testdata/reg.xlsx
+++ b/target/classes/testdata/reg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="432" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="432" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
   <si>
     <t>nimi</t>
   </si>
@@ -157,19 +157,19 @@
     <t>Tagasiside</t>
   </si>
   <si>
-    <t>tavalinetont27</t>
+    <t>tavalinetont30</t>
   </si>
   <si>
     <t>Toivo Tavaline</t>
   </si>
   <si>
-    <t>puhtaloom27</t>
+    <t>puhtaloom30</t>
   </si>
   <si>
     <t>Martin Loom</t>
   </si>
   <si>
-    <t>filmweird27</t>
+    <t>filmweird30</t>
   </si>
   <si>
     <t>Toomas Film</t>
@@ -214,7 +214,7 @@
     <t>Eks sa tea paremini</t>
   </si>
   <si>
-    <t>selentest13@mailinator.com</t>
+    <t>selentest16@mailinator.com</t>
   </si>
   <si>
     <t>selentest@hotmail.com</t>
@@ -232,7 +232,7 @@
     <t>Eks kaitsetöö ole kah tähtis</t>
   </si>
   <si>
-    <t>testimeauto12@mailinator.com</t>
+    <t>testimeauto13@mailinator.com</t>
   </si>
   <si>
     <t>Sa ei tea kes ma olen</t>
@@ -463,157 +463,37 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1515</t>
+    <t>4582</t>
+  </si>
+  <si>
+    <t>6130</t>
+  </si>
+  <si>
+    <t>7914</t>
   </si>
   <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>2154</t>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>5677</t>
+  </si>
+  <si>
+    <t>7161</t>
   </si>
   <si>
     <t>IE</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12664</t>
-  </si>
-  <si>
-    <t>2491</t>
-  </si>
-  <si>
-    <t>1507</t>
-  </si>
-  <si>
-    <t>6692</t>
-  </si>
-  <si>
-    <t>6496</t>
-  </si>
-  <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>5232</t>
-  </si>
-  <si>
-    <t>5885</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>5167</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>4396</t>
-  </si>
-  <si>
-    <t>5822</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>5350</t>
-  </si>
-  <si>
-    <t>5541</t>
-  </si>
-  <si>
-    <t>3970</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>6634</t>
-  </si>
-  <si>
-    <t>1493</t>
-  </si>
-  <si>
-    <t>3173</t>
-  </si>
-  <si>
-    <t>5110</t>
-  </si>
-  <si>
-    <t>7289</t>
-  </si>
-  <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>8379</t>
-  </si>
-  <si>
-    <t>10416</t>
-  </si>
-  <si>
-    <t>2428</t>
-  </si>
-  <si>
-    <t>8489</t>
-  </si>
-  <si>
-    <t>8490</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>10420</t>
-  </si>
-  <si>
-    <t>11922</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>6391</t>
-  </si>
-  <si>
-    <t>9549</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>4760</t>
-  </si>
-  <si>
-    <t>5922</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>10627</t>
-  </si>
-  <si>
-    <t>8920</t>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>6792</t>
+  </si>
+  <si>
+    <t>7582</t>
   </si>
 </sst>
 </file>
@@ -751,14 +631,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="15.6326530612245" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.6785714285714" collapsed="true"/>
-    <col min="3" max="4" hidden="false" style="0" width="12.969387755102" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="16.0816326530612" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="21.2295918367347" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,8 +781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.5663265306122" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +802,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet6!B2</f>
@@ -939,7 +819,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet6!B3</f>
@@ -956,7 +836,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet6!B4</f>
@@ -988,14 +868,14 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.5663265306122" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +892,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet2!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1025,7 +905,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet2!A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1038,7 +918,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet2!A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1066,17 +946,17 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="13.2857142857143" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="23.5612244897959" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,14 +1035,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="4" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="23.5612244897959" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="19.3214285714286" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="20.8775510204082" collapsed="true"/>
-    <col min="8" max="9" hidden="false" style="0" width="28.3673469387755" collapsed="true"/>
-    <col min="10" max="10" hidden="false" style="0" width="20.4387755102041" collapsed="true"/>
-    <col min="11" max="11" hidden="false" style="0" width="20.1122448979592" collapsed="true"/>
-    <col min="12" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="28.3673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,15 +1083,15 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1242,15 +1122,15 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1281,15 +1161,15 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1320,7 +1200,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="selentest@hotmail.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="testimeauto12@mailinator.com"/>
+    <hyperlink ref="I3" r:id="rId2" display="testimeauto13@mailinator.com"/>
     <hyperlink ref="J3" r:id="rId3" display="selentest@hotmail.com"/>
     <hyperlink ref="I4" r:id="rId4" display="vahekonto11@mailinator.com"/>
     <hyperlink ref="J4" r:id="rId5" display="selentest@hotmail.com"/>
@@ -1348,15 +1228,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="3" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="30.5" collapsed="true"/>
-    <col min="5" max="6" hidden="false" style="0" width="20.8775510204082" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="16.4132653061224" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="18.2040816326531" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="16.1887755102041" collapsed="true"/>
-    <col min="10" max="10" hidden="false" style="0" width="27.25" collapsed="true"/>
-    <col min="11" max="11" hidden="false" style="0" width="17.7551020408163" collapsed="true"/>
-    <col min="12" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2040816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1887755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.25"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1283,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1446,7 +1326,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1489,7 +1369,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1553,11 +1433,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="3" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="47.1275510204082" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.9540816326531" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,11 +1463,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet6!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1606,11 +1486,11 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet6!A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1629,11 +1509,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet6!A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1680,14 +1560,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="2" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="3" max="4" hidden="false" style="0" width="31.0459183673469" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="26.3571428571429" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.5204081632653" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="12.8520408163265" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="22.3367346938776" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8520408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,11 +1596,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1743,11 +1623,11 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom27</v>
+        <v>puhtaloom30</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1770,11 +1650,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird27</v>
+        <v>filmweird30</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont27</v>
+        <v>tavalinetont30</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1818,7 +1698,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,13 +1726,13 @@
         <v>145</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,13 +1743,13 @@
         <v>149</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,16 +1757,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/reg.xlsx
+++ b/target/classes/testdata/reg.xlsx
@@ -157,19 +157,19 @@
     <t>Tagasiside</t>
   </si>
   <si>
-    <t>tavalinetont30</t>
+    <t>tavalinetont31</t>
   </si>
   <si>
     <t>Toivo Tavaline</t>
   </si>
   <si>
-    <t>puhtaloom30</t>
+    <t>puhtaloom31</t>
   </si>
   <si>
     <t>Martin Loom</t>
   </si>
   <si>
-    <t>filmweird30</t>
+    <t>filmweird31</t>
   </si>
   <si>
     <t>Toomas Film</t>
@@ -585,7 +585,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,6 +596,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -802,7 +806,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet6!B2</f>
@@ -819,7 +823,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet6!B3</f>
@@ -836,7 +840,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet6!B4</f>
@@ -892,7 +896,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet2!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -905,7 +909,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet2!A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -918,7 +922,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet2!A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -998,7 +1002,7 @@
       <c r="D2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1083,15 +1087,15 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1112,25 +1116,25 @@
       <c r="I2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1148,28 +1152,28 @@
       <c r="H3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1187,13 +1191,13 @@
       <c r="H4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1283,7 +1287,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1326,7 +1330,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1369,7 +1373,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1428,7 +1432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1463,69 +1467,69 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet6!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
         <v>testime11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet6!A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
         <v>testime11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet6!A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
         <v>testime11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1596,11 +1600,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1623,11 +1627,11 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom30</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1650,11 +1654,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird30</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont30</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>

--- a/target/classes/testdata/reg.xlsx
+++ b/target/classes/testdata/reg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="432" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="293" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
   <si>
     <t>nimi</t>
   </si>
@@ -451,13 +451,22 @@
     <t>Brauser</t>
   </si>
   <si>
+    <t>60kb</t>
+  </si>
+  <si>
     <t>1mb</t>
   </si>
   <si>
-    <t>2mb</t>
-  </si>
-  <si>
-    <t>3mb</t>
+    <t>2,7mb</t>
+  </si>
+  <si>
+    <t>Kysimuseupload</t>
+  </si>
+  <si>
+    <t>2,2mb</t>
+  </si>
+  <si>
+    <t>4,8mb</t>
   </si>
   <si>
     <t>firefox</t>
@@ -470,6 +479,9 @@
   </si>
   <si>
     <t>7914</t>
+  </si>
+  <si>
+    <t>puudu</t>
   </si>
   <si>
     <t>chrome</t>
@@ -950,7 +962,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1694,15 +1706,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,22 +1735,46 @@
       <c r="E1" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,15 +1782,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1761,16 +1811,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/reg.xlsx
+++ b/target/classes/testdata/reg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="293" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="293" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" state="visible" r:id="rId2"/>
@@ -157,19 +157,19 @@
     <t>Tagasiside</t>
   </si>
   <si>
-    <t>tavalinetont31</t>
+    <t>tavalinetont33</t>
   </si>
   <si>
     <t>Toivo Tavaline</t>
   </si>
   <si>
-    <t>puhtaloom31</t>
+    <t>puhtaloom33</t>
   </si>
   <si>
     <t>Martin Loom</t>
   </si>
   <si>
-    <t>filmweird31</t>
+    <t>filmweird33</t>
   </si>
   <si>
     <t>Toomas Film</t>
@@ -208,13 +208,13 @@
     <t>Oma küla vana</t>
   </si>
   <si>
-    <t>Jalgpalliäss</t>
+    <t>Jalgpalliass</t>
   </si>
   <si>
     <t>Eks sa tea paremini</t>
   </si>
   <si>
-    <t>selentest16@mailinator.com</t>
+    <t>selentest20@mailinator.com</t>
   </si>
   <si>
     <t>selentest@hotmail.com</t>
@@ -232,7 +232,7 @@
     <t>Eks kaitsetöö ole kah tähtis</t>
   </si>
   <si>
-    <t>testimeauto13@mailinator.com</t>
+    <t>testimeauto20@mailinator.com</t>
   </si>
   <si>
     <t>Sa ei tea kes ma olen</t>
@@ -247,7 +247,7 @@
     <t>Indeed</t>
   </si>
   <si>
-    <t>vahekonto11@mailinator.com</t>
+    <t>vahekonto20@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -289,10 +289,10 @@
     <t>Tavaline</t>
   </si>
   <si>
-    <t>Kas see on tavaline küsitlius</t>
-  </si>
-  <si>
-    <t>Tundub täiesti tavaline</t>
+    <t>Kas see on tavaline kysitlus</t>
+  </si>
+  <si>
+    <t>Tundub taiesti tavaline</t>
   </si>
   <si>
     <t>Mis meeldib mulle</t>
@@ -307,7 +307,7 @@
     <t>Draama</t>
   </si>
   <si>
-    <t>Õnnenumbrid on mul</t>
+    <t>6nnenumbrid on mul</t>
   </si>
   <si>
     <t>Kolmteist</t>
@@ -316,7 +316,7 @@
     <t>Seitse</t>
   </si>
   <si>
-    <t>Üks</t>
+    <t>Yks</t>
   </si>
   <si>
     <t>Loomaed</t>
@@ -355,10 +355,10 @@
     <t>Filmid</t>
   </si>
   <si>
-    <t>Kas liiga palju järge on halb?</t>
-  </si>
-  <si>
-    <t>Kahjuks küll, kuid raha toovad nad sisse</t>
+    <t>Kas liiga palju jarge on halb?</t>
+  </si>
+  <si>
+    <t>Ei, kuid ju siis toovad raha sisse</t>
   </si>
   <si>
     <t>Minu lemmikfilmi zanr</t>
@@ -424,7 +424,7 @@
     <t>Sinu jaoks jah</t>
   </si>
   <si>
-    <t>Väravaid oskab lüüa, kuid kaitsa ei oska</t>
+    <t>Väravaid oskab lyya, kuid kaitsa ei oska</t>
   </si>
   <si>
     <t>Eks me kõik oleme natuke imelikud</t>
@@ -818,7 +818,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet6!B2</f>
@@ -835,7 +835,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet6!B3</f>
@@ -852,7 +852,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet6!B4</f>
@@ -908,7 +908,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet2!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -921,7 +921,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet2!A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -934,7 +934,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet2!A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -963,7 +963,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1099,15 +1099,15 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1138,15 +1138,15 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1177,15 +1177,15 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1216,10 +1216,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="selentest@hotmail.com"/>
-    <hyperlink ref="I3" r:id="rId2" display="testimeauto13@mailinator.com"/>
-    <hyperlink ref="J3" r:id="rId3" display="selentest@hotmail.com"/>
-    <hyperlink ref="I4" r:id="rId4" display="vahekonto11@mailinator.com"/>
-    <hyperlink ref="J4" r:id="rId5" display="selentest@hotmail.com"/>
+    <hyperlink ref="J3" r:id="rId2" display="selentest@hotmail.com"/>
+    <hyperlink ref="J4" r:id="rId3" display="selentest@hotmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1239,7 +1237,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1299,7 +1297,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1342,7 +1340,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1385,7 +1383,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1479,11 +1477,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet6!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1502,11 +1500,11 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet6!A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1525,11 +1523,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet6!A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1571,7 +1569,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1612,11 +1610,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1633,17 +1631,17 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">Sheet5!G2</f>
-        <v>Jalgpalliäss</v>
+        <v>Jalgpalliass</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom31</v>
+        <v>puhtaloom33</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1666,11 +1664,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird31</v>
+        <v>filmweird33</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont31</v>
+        <v>tavalinetont33</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1708,7 +1706,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/target/classes/testdata/reg.xlsx
+++ b/target/classes/testdata/reg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="293" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="293" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" state="visible" r:id="rId2"/>
@@ -157,19 +157,19 @@
     <t>Tagasiside</t>
   </si>
   <si>
-    <t>tavalinetont33</t>
+    <t>tavalinetont31</t>
   </si>
   <si>
     <t>Toivo Tavaline</t>
   </si>
   <si>
-    <t>puhtaloom33</t>
+    <t>puhtaloom31</t>
   </si>
   <si>
     <t>Martin Loom</t>
   </si>
   <si>
-    <t>filmweird33</t>
+    <t>filmweird31</t>
   </si>
   <si>
     <t>Toomas Film</t>
@@ -208,13 +208,13 @@
     <t>Oma küla vana</t>
   </si>
   <si>
-    <t>Jalgpalliass</t>
+    <t>Jalgpalliäss</t>
   </si>
   <si>
     <t>Eks sa tea paremini</t>
   </si>
   <si>
-    <t>selentest20@mailinator.com</t>
+    <t>selentest16@mailinator.com</t>
   </si>
   <si>
     <t>selentest@hotmail.com</t>
@@ -232,7 +232,7 @@
     <t>Eks kaitsetöö ole kah tähtis</t>
   </si>
   <si>
-    <t>testimeauto20@mailinator.com</t>
+    <t>testimeauto13@mailinator.com</t>
   </si>
   <si>
     <t>Sa ei tea kes ma olen</t>
@@ -247,7 +247,7 @@
     <t>Indeed</t>
   </si>
   <si>
-    <t>vahekonto20@mailinator.com</t>
+    <t>vahekonto11@mailinator.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -289,10 +289,10 @@
     <t>Tavaline</t>
   </si>
   <si>
-    <t>Kas see on tavaline kysitlus</t>
-  </si>
-  <si>
-    <t>Tundub taiesti tavaline</t>
+    <t>Kas see on tavaline küsitlius</t>
+  </si>
+  <si>
+    <t>Tundub täiesti tavaline</t>
   </si>
   <si>
     <t>Mis meeldib mulle</t>
@@ -307,7 +307,7 @@
     <t>Draama</t>
   </si>
   <si>
-    <t>6nnenumbrid on mul</t>
+    <t>Õnnenumbrid on mul</t>
   </si>
   <si>
     <t>Kolmteist</t>
@@ -316,7 +316,7 @@
     <t>Seitse</t>
   </si>
   <si>
-    <t>Yks</t>
+    <t>Üks</t>
   </si>
   <si>
     <t>Loomaed</t>
@@ -355,10 +355,10 @@
     <t>Filmid</t>
   </si>
   <si>
-    <t>Kas liiga palju jarge on halb?</t>
-  </si>
-  <si>
-    <t>Ei, kuid ju siis toovad raha sisse</t>
+    <t>Kas liiga palju järge on halb?</t>
+  </si>
+  <si>
+    <t>Kahjuks küll, kuid raha toovad nad sisse</t>
   </si>
   <si>
     <t>Minu lemmikfilmi zanr</t>
@@ -424,7 +424,7 @@
     <t>Sinu jaoks jah</t>
   </si>
   <si>
-    <t>Väravaid oskab lyya, kuid kaitsa ei oska</t>
+    <t>Väravaid oskab lüüa, kuid kaitsa ei oska</t>
   </si>
   <si>
     <t>Eks me kõik oleme natuke imelikud</t>
@@ -818,7 +818,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet6!B2</f>
@@ -835,7 +835,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet6!B3</f>
@@ -852,7 +852,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet6!B4</f>
@@ -908,7 +908,7 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet2!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -921,7 +921,7 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet2!A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -934,7 +934,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet2!A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="2" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -963,7 +963,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1099,15 +1099,15 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet4!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1138,15 +1138,15 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet4!C2</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1177,15 +1177,15 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet4!E2</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">Sheet4!G2</f>
@@ -1216,8 +1216,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="selentest@hotmail.com"/>
-    <hyperlink ref="J3" r:id="rId2" display="selentest@hotmail.com"/>
-    <hyperlink ref="J4" r:id="rId3" display="selentest@hotmail.com"/>
+    <hyperlink ref="I3" r:id="rId2" display="testimeauto13@mailinator.com"/>
+    <hyperlink ref="J3" r:id="rId3" display="selentest@hotmail.com"/>
+    <hyperlink ref="I4" r:id="rId4" display="vahekonto11@mailinator.com"/>
+    <hyperlink ref="J4" r:id="rId5" display="selentest@hotmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1237,7 +1239,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1297,7 +1299,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1340,7 +1342,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1383,7 +1385,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1477,11 +1479,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet6!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1500,11 +1502,11 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet6!A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1523,11 +1525,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet6!A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1569,7 +1571,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1610,11 +1612,11 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">Sheet5!A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Sheet5!D2</f>
@@ -1631,17 +1633,17 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">Sheet5!G2</f>
-        <v>Jalgpalliass</v>
+        <v>Jalgpalliäss</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">Sheet5!A3</f>
-        <v>puhtaloom33</v>
+        <v>puhtaloom31</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">Sheet5!D3</f>
@@ -1664,11 +1666,11 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">Sheet5!A4</f>
-        <v>filmweird33</v>
+        <v>filmweird31</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">A2</f>
-        <v>tavalinetont33</v>
+        <v>tavalinetont31</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Sheet5!D4</f>
@@ -1706,7 +1708,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
